--- a/bs/Карельское_ПМЭС_для_МЭС.xlsx
+++ b/bs/Карельское_ПМЭС_для_МЭС.xlsx
@@ -25236,7 +25236,7 @@
     <t>+7(812) 449-83-89</t>
   </si>
   <si>
-    <t>дата изменения 04.03.2022</t>
+    <t>дата изменения 03.03.2022</t>
   </si>
 </sst>
 </file>
@@ -25564,7 +25564,7 @@
   <dimension ref="A1:V360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bs/Карельское_ПМЭС_для_МЭС.xlsx
+++ b/bs/Карельское_ПМЭС_для_МЭС.xlsx
@@ -25236,7 +25236,7 @@
     <t>+7(812) 449-83-89</t>
   </si>
   <si>
-    <t>дата изменения 03.03.2022</t>
+    <t>дата изменения 04.03.2022</t>
   </si>
 </sst>
 </file>

--- a/bs/Карельское_ПМЭС_для_МЭС.xlsx
+++ b/bs/Карельское_ПМЭС_для_МЭС.xlsx
@@ -25236,7 +25236,7 @@
     <t>+7(812) 449-83-89</t>
   </si>
   <si>
-    <t>дата изменения 04.03.2022</t>
+    <t>дата изменения 03.03.2022</t>
   </si>
 </sst>
 </file>

--- a/bs/Карельское_ПМЭС_для_МЭС.xlsx
+++ b/bs/Карельское_ПМЭС_для_МЭС.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariseev-ps\Documents\GitHub\Sprkpmes\bs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fariseev-ps\StudioProjects\Sprkpmes\bs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25236,7 +25236,7 @@
     <t>+7(812) 449-83-89</t>
   </si>
   <si>
-    <t>дата изменения 04.03.2022</t>
+    <t>дата изменения 01.03.2022</t>
   </si>
 </sst>
 </file>
@@ -25564,7 +25564,7 @@
   <dimension ref="A1:V360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bs/Карельское_ПМЭС_для_МЭС.xlsx
+++ b/bs/Карельское_ПМЭС_для_МЭС.xlsx
@@ -25236,7 +25236,7 @@
     <t>+7(812) 449-83-89</t>
   </si>
   <si>
-    <t>дата изменения 01.03.2022</t>
+    <t>дата изменения 02.03.2022</t>
   </si>
 </sst>
 </file>
@@ -25564,7 +25564,7 @@
   <dimension ref="A1:V360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/bs/Карельское_ПМЭС_для_МЭС.xlsx
+++ b/bs/Карельское_ПМЭС_для_МЭС.xlsx
@@ -25236,7 +25236,7 @@
     <t>+7(812) 449-83-89</t>
   </si>
   <si>
-    <t>дата изменения 02.03.2022</t>
+    <t>дата изменения 01.03.2022</t>
   </si>
 </sst>
 </file>

--- a/bs/Карельское_ПМЭС_для_МЭС.xlsx
+++ b/bs/Карельское_ПМЭС_для_МЭС.xlsx
@@ -25236,7 +25236,7 @@
     <t>+7(812) 449-83-89</t>
   </si>
   <si>
-    <t>дата изменения 01.03.2022</t>
+    <t>дата изменения 02.03.2022</t>
   </si>
 </sst>
 </file>
